--- a/experiments/finished exp/young-abx-exp6/young48-abx-list.xlsx
+++ b/experiments/finished exp/young-abx-exp6/young48-abx-list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chercheurs\Santos_Manuela\Thibault M\gut-microbiota-iron\experiments\ongoing exp\young-abx-exp6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chercheurs\Santos_Manuela\Thibault M\gut-microbiota-iron\experiments\finished exp\young-abx-exp6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A998DC9-5D77-476B-ADC7-C959ED59982B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE73A86C-7B51-46EF-A73B-E7A31CA53D2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11625" xr2:uid="{18957FC5-4B7F-4A12-94A3-2A46840ECEA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>cage</t>
   </si>
@@ -133,12 +133,27 @@
   </si>
   <si>
     <t>42072B</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>abx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -198,6 +213,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +532,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,396 +543,3150 @@
     <col min="2" max="2" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5">
+        <v>45532</v>
+      </c>
+      <c r="F1" s="4">
+        <v>45539</v>
+      </c>
+      <c r="G1" s="4">
+        <v>45546</v>
+      </c>
+      <c r="H1" s="4">
+        <v>45553</v>
+      </c>
+      <c r="I1" s="4">
+        <v>45560</v>
+      </c>
+      <c r="J1" s="4">
+        <v>45567</v>
+      </c>
+      <c r="K1" s="4">
+        <v>45575</v>
+      </c>
+      <c r="L1" s="4">
+        <v>45581</v>
+      </c>
+      <c r="M1" s="4">
+        <v>45588</v>
+      </c>
+      <c r="N1" s="4">
+        <v>45595</v>
+      </c>
+      <c r="O1" s="4">
+        <v>45602</v>
+      </c>
+      <c r="P1" s="4">
+        <v>45610</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>45616</v>
+      </c>
+      <c r="R1" s="4">
+        <v>45623</v>
+      </c>
+      <c r="S1" s="4">
+        <v>45630</v>
+      </c>
+      <c r="T1" s="4">
+        <v>45637</v>
+      </c>
+      <c r="U1" s="4">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>42039</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>11.4</v>
+      </c>
+      <c r="F2">
+        <v>15.3</v>
+      </c>
+      <c r="G2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H2">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I2">
+        <v>18.7</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L2">
+        <v>20.5</v>
+      </c>
+      <c r="M2">
+        <v>20.9</v>
+      </c>
+      <c r="N2">
+        <v>20.8</v>
+      </c>
+      <c r="O2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="P2">
+        <v>21.7</v>
+      </c>
+      <c r="Q2">
+        <v>21.7</v>
+      </c>
+      <c r="R2">
+        <v>21.9</v>
+      </c>
+      <c r="S2">
+        <v>22.2</v>
+      </c>
+      <c r="T2">
+        <v>22.5</v>
+      </c>
+      <c r="U2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F3">
+        <v>13.5</v>
+      </c>
+      <c r="G3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="K3">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L3">
+        <v>20.2</v>
+      </c>
+      <c r="M3">
+        <v>21.5</v>
+      </c>
+      <c r="N3">
+        <v>21.8</v>
+      </c>
+      <c r="O3">
+        <v>21</v>
+      </c>
+      <c r="P3">
+        <v>21.4</v>
+      </c>
+      <c r="Q3">
+        <v>22</v>
+      </c>
+      <c r="R3">
+        <v>22.5</v>
+      </c>
+      <c r="S3">
+        <v>23.2</v>
+      </c>
+      <c r="T3">
+        <v>23.4</v>
+      </c>
+      <c r="U3">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>9.9</v>
+      </c>
+      <c r="F4">
+        <v>15.4</v>
+      </c>
+      <c r="G4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H4">
+        <v>21.5</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>23.1</v>
+      </c>
+      <c r="K4">
+        <v>22.9</v>
+      </c>
+      <c r="L4">
+        <v>22.7</v>
+      </c>
+      <c r="M4">
+        <v>22.8</v>
+      </c>
+      <c r="N4">
+        <v>23.5</v>
+      </c>
+      <c r="O4">
+        <v>23.9</v>
+      </c>
+      <c r="P4">
+        <v>24.7</v>
+      </c>
+      <c r="Q4">
+        <v>25.3</v>
+      </c>
+      <c r="R4">
+        <v>25.2</v>
+      </c>
+      <c r="S4">
+        <v>25.4</v>
+      </c>
+      <c r="T4">
+        <v>26.5</v>
+      </c>
+      <c r="U4">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>42076</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>9.6</v>
+      </c>
+      <c r="F5">
+        <v>14.6</v>
+      </c>
+      <c r="G5">
+        <v>18.2</v>
+      </c>
+      <c r="H5">
+        <v>19.2</v>
+      </c>
+      <c r="I5">
+        <v>19.5</v>
+      </c>
+      <c r="J5">
+        <v>21.2</v>
+      </c>
+      <c r="K5">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L5">
+        <v>22.1</v>
+      </c>
+      <c r="M5">
+        <v>21.4</v>
+      </c>
+      <c r="N5">
+        <v>21.8</v>
+      </c>
+      <c r="O5">
+        <v>23.3</v>
+      </c>
+      <c r="P5">
+        <v>24.6</v>
+      </c>
+      <c r="Q5">
+        <v>24.4</v>
+      </c>
+      <c r="R5">
+        <v>23.8</v>
+      </c>
+      <c r="S5">
+        <v>24.8</v>
+      </c>
+      <c r="T5">
+        <v>25.7</v>
+      </c>
+      <c r="U5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>42060</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>15.1</v>
+      </c>
+      <c r="G6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>19.8</v>
+      </c>
+      <c r="J6">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K6">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>21.7</v>
+      </c>
+      <c r="M6">
+        <v>21.8</v>
+      </c>
+      <c r="N6">
+        <v>22.3</v>
+      </c>
+      <c r="O6">
+        <v>22.6</v>
+      </c>
+      <c r="P6">
+        <v>23.6</v>
+      </c>
+      <c r="Q6">
+        <v>23.4</v>
+      </c>
+      <c r="R6">
+        <v>22.7</v>
+      </c>
+      <c r="S6">
+        <v>23.6</v>
+      </c>
+      <c r="T6">
+        <v>23.9</v>
+      </c>
+      <c r="U6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>6.5</v>
+      </c>
+      <c r="F7">
+        <v>11.7</v>
+      </c>
+      <c r="G7">
+        <v>16.5</v>
+      </c>
+      <c r="H7">
+        <v>17.3</v>
+      </c>
+      <c r="I7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J7">
+        <v>19.3</v>
+      </c>
+      <c r="K7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L7">
+        <v>21</v>
+      </c>
+      <c r="M7">
+        <v>20.5</v>
+      </c>
+      <c r="N7">
+        <v>21.1</v>
+      </c>
+      <c r="O7">
+        <v>22.2</v>
+      </c>
+      <c r="P7">
+        <v>21.7</v>
+      </c>
+      <c r="Q7">
+        <v>21.9</v>
+      </c>
+      <c r="R7">
+        <v>23.3</v>
+      </c>
+      <c r="S7">
+        <v>21.8</v>
+      </c>
+      <c r="T7">
+        <v>22.5</v>
+      </c>
+      <c r="U7">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>42088</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>13.3</v>
+      </c>
+      <c r="G8">
+        <v>16.2</v>
+      </c>
+      <c r="H8">
+        <v>18.5</v>
+      </c>
+      <c r="I8">
+        <v>17.5</v>
+      </c>
+      <c r="J8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K8">
+        <v>19.8</v>
+      </c>
+      <c r="L8">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M8">
+        <v>18.2</v>
+      </c>
+      <c r="N8">
+        <v>20.8</v>
+      </c>
+      <c r="O8">
+        <v>20.8</v>
+      </c>
+      <c r="P8">
+        <v>21.6</v>
+      </c>
+      <c r="Q8">
+        <v>21.6</v>
+      </c>
+      <c r="R8">
+        <v>22</v>
+      </c>
+      <c r="S8">
+        <v>22.7</v>
+      </c>
+      <c r="T8">
+        <v>23.7</v>
+      </c>
+      <c r="U8">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>10.3</v>
+      </c>
+      <c r="F9">
+        <v>14.6</v>
+      </c>
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K9">
+        <v>19.5</v>
+      </c>
+      <c r="L9">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M9">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N9">
+        <v>21.1</v>
+      </c>
+      <c r="O9">
+        <v>21.2</v>
+      </c>
+      <c r="P9">
+        <v>21.4</v>
+      </c>
+      <c r="Q9">
+        <v>21.5</v>
+      </c>
+      <c r="R9">
+        <v>22.1</v>
+      </c>
+      <c r="S9">
+        <v>21.8</v>
+      </c>
+      <c r="T9">
+        <v>22.6</v>
+      </c>
+      <c r="U9">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>42099</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>9.9</v>
+      </c>
+      <c r="F10">
+        <v>14.7</v>
+      </c>
+      <c r="G10">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H10">
+        <v>16.7</v>
+      </c>
+      <c r="I10">
+        <v>17.5</v>
+      </c>
+      <c r="J10">
+        <v>18.8</v>
+      </c>
+      <c r="K10">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L10">
+        <v>17.8</v>
+      </c>
+      <c r="M10">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N10">
+        <v>20.2</v>
+      </c>
+      <c r="O10">
+        <v>19.5</v>
+      </c>
+      <c r="P10">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="R10">
+        <v>20.6</v>
+      </c>
+      <c r="S10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="T10">
+        <v>20.5</v>
+      </c>
+      <c r="U10">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F11">
+        <v>13.8</v>
+      </c>
+      <c r="G11">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H11">
+        <v>17.8</v>
+      </c>
+      <c r="I11">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K11">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L11">
+        <v>19.7</v>
+      </c>
+      <c r="M11">
+        <v>20.5</v>
+      </c>
+      <c r="N11">
+        <v>21.9</v>
+      </c>
+      <c r="O11">
+        <v>22.8</v>
+      </c>
+      <c r="P11">
+        <v>22.8</v>
+      </c>
+      <c r="Q11">
+        <v>23.3</v>
+      </c>
+      <c r="R11">
+        <v>23.5</v>
+      </c>
+      <c r="S11">
+        <v>24</v>
+      </c>
+      <c r="T11">
+        <v>23.6</v>
+      </c>
+      <c r="U11">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>11.5</v>
+      </c>
+      <c r="F12">
+        <v>15.2</v>
+      </c>
+      <c r="G12">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H12">
+        <v>18.8</v>
+      </c>
+      <c r="I12">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J12">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K12">
+        <v>21.6</v>
+      </c>
+      <c r="L12">
+        <v>21</v>
+      </c>
+      <c r="M12">
+        <v>19.2</v>
+      </c>
+      <c r="N12">
+        <v>21.4</v>
+      </c>
+      <c r="O12">
+        <v>21.8</v>
+      </c>
+      <c r="P12">
+        <v>22.7</v>
+      </c>
+      <c r="Q12">
+        <v>22.6</v>
+      </c>
+      <c r="R12">
+        <v>23.7</v>
+      </c>
+      <c r="S12">
+        <v>23.1</v>
+      </c>
+      <c r="T12">
+        <v>24</v>
+      </c>
+      <c r="U12">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>42070</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>11.2</v>
+      </c>
+      <c r="F13">
+        <v>15.3</v>
+      </c>
+      <c r="G13">
+        <v>17.3</v>
+      </c>
+      <c r="H13">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I13">
+        <v>18.3</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>19.5</v>
+      </c>
+      <c r="L13">
+        <v>19.2</v>
+      </c>
+      <c r="M13">
+        <v>18.2</v>
+      </c>
+      <c r="N13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="O13">
+        <v>20.5</v>
+      </c>
+      <c r="P13">
+        <v>21.4</v>
+      </c>
+      <c r="Q13">
+        <v>21.3</v>
+      </c>
+      <c r="R13">
+        <v>21</v>
+      </c>
+      <c r="S13">
+        <v>20.9</v>
+      </c>
+      <c r="T13">
+        <v>22</v>
+      </c>
+      <c r="U13">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>11.8</v>
+      </c>
+      <c r="F14">
+        <v>15.9</v>
+      </c>
+      <c r="G14">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H14">
+        <v>19</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>21.2</v>
+      </c>
+      <c r="K14">
+        <v>21.8</v>
+      </c>
+      <c r="L14">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>21.5</v>
+      </c>
+      <c r="N14">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <v>23</v>
+      </c>
+      <c r="P14">
+        <v>24.6</v>
+      </c>
+      <c r="Q14">
+        <v>24</v>
+      </c>
+      <c r="R14">
+        <v>24.4</v>
+      </c>
+      <c r="S14">
+        <v>25.2</v>
+      </c>
+      <c r="T14">
+        <v>24.9</v>
+      </c>
+      <c r="U14">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" s="2">
         <v>42056</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F15">
+        <v>14.4</v>
+      </c>
+      <c r="G15">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H15">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I15">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J15">
+        <v>21</v>
+      </c>
+      <c r="K15">
+        <v>21.5</v>
+      </c>
+      <c r="L15">
+        <v>22.3</v>
+      </c>
+      <c r="M15">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <v>22.7</v>
+      </c>
+      <c r="O15">
+        <v>22.8</v>
+      </c>
+      <c r="P15">
+        <v>23.4</v>
+      </c>
+      <c r="Q15">
+        <v>24.1</v>
+      </c>
+      <c r="R15">
+        <v>23.2</v>
+      </c>
+      <c r="S15">
+        <v>24</v>
+      </c>
+      <c r="T15">
+        <v>25.1</v>
+      </c>
+      <c r="U15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>42043</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>14.6</v>
+      </c>
+      <c r="G16">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H16">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I16">
+        <v>18.8</v>
+      </c>
+      <c r="J16">
+        <v>19.7</v>
+      </c>
+      <c r="K16">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L16">
+        <v>19.7</v>
+      </c>
+      <c r="M16">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N16">
+        <v>20.3</v>
+      </c>
+      <c r="O16">
+        <v>20.3</v>
+      </c>
+      <c r="P16">
+        <v>21.5</v>
+      </c>
+      <c r="Q16">
+        <v>20.7</v>
+      </c>
+      <c r="R16">
+        <v>20.6</v>
+      </c>
+      <c r="S16">
+        <v>21.5</v>
+      </c>
+      <c r="T16">
+        <v>21.6</v>
+      </c>
+      <c r="U16">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
+        <v>9.4</v>
+      </c>
+      <c r="F17">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G17">
+        <v>17.2</v>
+      </c>
+      <c r="H17">
+        <v>16.8</v>
+      </c>
+      <c r="I17">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J17">
+        <v>20.5</v>
+      </c>
+      <c r="K17">
+        <v>20.2</v>
+      </c>
+      <c r="L17">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
+      </c>
+      <c r="N17">
+        <v>20.3</v>
+      </c>
+      <c r="O17">
+        <v>21.1</v>
+      </c>
+      <c r="P17">
+        <v>21.6</v>
+      </c>
+      <c r="Q17">
+        <v>21.5</v>
+      </c>
+      <c r="R17">
+        <v>20.8</v>
+      </c>
+      <c r="S17">
+        <v>21.9</v>
+      </c>
+      <c r="T17">
+        <v>21.2</v>
+      </c>
+      <c r="U17">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F18">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H18">
+        <v>19.3</v>
+      </c>
+      <c r="I18">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J18">
+        <v>20.3</v>
+      </c>
+      <c r="K18">
+        <v>20.9</v>
+      </c>
+      <c r="L18">
+        <v>21.1</v>
+      </c>
+      <c r="M18">
+        <v>21.8</v>
+      </c>
+      <c r="N18">
+        <v>22.6</v>
+      </c>
+      <c r="O18">
+        <v>22.1</v>
+      </c>
+      <c r="P18">
+        <v>22.7</v>
+      </c>
+      <c r="Q18">
+        <v>23.2</v>
+      </c>
+      <c r="R18">
+        <v>24.4</v>
+      </c>
+      <c r="S18">
+        <v>23.6</v>
+      </c>
+      <c r="T18">
+        <v>24.8</v>
+      </c>
+      <c r="U18">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" s="2">
         <v>42083</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F19">
+        <v>13.2</v>
+      </c>
+      <c r="G19">
+        <v>16.8</v>
+      </c>
+      <c r="H19">
+        <v>17.2</v>
+      </c>
+      <c r="I19">
+        <v>17.8</v>
+      </c>
+      <c r="J19">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="L19">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M19">
+        <v>19.7</v>
+      </c>
+      <c r="N19">
+        <v>20.5</v>
+      </c>
+      <c r="O19">
+        <v>20.3</v>
+      </c>
+      <c r="P19">
+        <v>20.8</v>
+      </c>
+      <c r="Q19">
+        <v>20.8</v>
+      </c>
+      <c r="R19">
+        <v>20.9</v>
+      </c>
+      <c r="S19">
+        <v>21.6</v>
+      </c>
+      <c r="T19">
+        <v>23</v>
+      </c>
+      <c r="U19">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20">
+        <v>8.6</v>
+      </c>
+      <c r="F20">
+        <v>12.5</v>
+      </c>
+      <c r="G20">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>18.7</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>20.5</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>20.7</v>
+      </c>
+      <c r="O20">
+        <v>21.3</v>
+      </c>
+      <c r="P20">
+        <v>21.8</v>
+      </c>
+      <c r="Q20">
+        <v>21.8</v>
+      </c>
+      <c r="R20">
+        <v>22.6</v>
+      </c>
+      <c r="S20">
+        <v>22.7</v>
+      </c>
+      <c r="T20">
+        <v>23.8</v>
+      </c>
+      <c r="U20">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" s="2">
         <v>40703</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>10.5</v>
+      </c>
+      <c r="F21">
+        <v>14.9</v>
+      </c>
+      <c r="G21">
+        <v>17.3</v>
+      </c>
+      <c r="H21">
+        <v>18.8</v>
+      </c>
+      <c r="I21">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J21">
+        <v>20.6</v>
+      </c>
+      <c r="K21">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L21">
+        <v>20.7</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>20.6</v>
+      </c>
+      <c r="O21">
+        <v>21.6</v>
+      </c>
+      <c r="P21">
+        <v>22.1</v>
+      </c>
+      <c r="Q21">
+        <v>21.6</v>
+      </c>
+      <c r="R21">
+        <v>23.2</v>
+      </c>
+      <c r="S21">
+        <v>22.6</v>
+      </c>
+      <c r="T21">
+        <v>24.1</v>
+      </c>
+      <c r="U21">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22">
+        <v>10.5</v>
+      </c>
+      <c r="F22">
+        <v>14.1</v>
+      </c>
+      <c r="G22">
+        <v>17.3</v>
+      </c>
+      <c r="H22">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I22">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J22">
+        <v>18.8</v>
+      </c>
+      <c r="K22">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22">
+        <v>20.2</v>
+      </c>
+      <c r="N22">
+        <v>20.8</v>
+      </c>
+      <c r="O22">
+        <v>19.3</v>
+      </c>
+      <c r="P22">
+        <v>21</v>
+      </c>
+      <c r="Q22">
+        <v>20.8</v>
+      </c>
+      <c r="R22">
+        <v>21.6</v>
+      </c>
+      <c r="S22">
+        <v>21.3</v>
+      </c>
+      <c r="T22">
+        <v>21.8</v>
+      </c>
+      <c r="U22">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="B23" s="2">
         <v>40707</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>12.1</v>
+      </c>
+      <c r="G23">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H23">
+        <v>17.8</v>
+      </c>
+      <c r="I23">
+        <v>19.3</v>
+      </c>
+      <c r="J23">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K23">
+        <v>20.5</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>22.1</v>
+      </c>
+      <c r="N23">
+        <v>21.9</v>
+      </c>
+      <c r="O23">
+        <v>22.1</v>
+      </c>
+      <c r="P23">
+        <v>22.6</v>
+      </c>
+      <c r="Q23">
+        <v>23.1</v>
+      </c>
+      <c r="R23">
+        <v>23.7</v>
+      </c>
+      <c r="S23">
+        <v>23.5</v>
+      </c>
+      <c r="T23">
+        <v>25.2</v>
+      </c>
+      <c r="U23">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
       <c r="B24" s="2">
         <v>42064</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>10.6</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H24">
+        <v>19.7</v>
+      </c>
+      <c r="I24">
+        <v>20.8</v>
+      </c>
+      <c r="J24">
+        <v>21.7</v>
+      </c>
+      <c r="K24">
+        <v>21.7</v>
+      </c>
+      <c r="L24">
+        <v>20.5</v>
+      </c>
+      <c r="M24">
+        <v>19.8</v>
+      </c>
+      <c r="N24">
+        <v>21.3</v>
+      </c>
+      <c r="O24">
+        <v>21.7</v>
+      </c>
+      <c r="P24">
+        <v>22</v>
+      </c>
+      <c r="Q24">
+        <v>21.5</v>
+      </c>
+      <c r="R24">
+        <v>21.5</v>
+      </c>
+      <c r="S24">
+        <v>22.2</v>
+      </c>
+      <c r="T24">
+        <v>23.4</v>
+      </c>
+      <c r="U24">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>10.5</v>
+      </c>
+      <c r="F25">
+        <v>14.5</v>
+      </c>
+      <c r="G25">
+        <v>17.3</v>
+      </c>
+      <c r="H25">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="I25">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J25">
+        <v>19.3</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M25">
+        <v>18.8</v>
+      </c>
+      <c r="N25">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="O25">
+        <v>20.8</v>
+      </c>
+      <c r="P25">
+        <v>20.7</v>
+      </c>
+      <c r="Q25">
+        <v>20.7</v>
+      </c>
+      <c r="R25">
+        <v>20.9</v>
+      </c>
+      <c r="S25">
+        <v>22.1</v>
+      </c>
+      <c r="T25">
+        <v>21.6</v>
+      </c>
+      <c r="U25">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26">
+        <v>11.4</v>
+      </c>
+      <c r="F26">
+        <v>16.3</v>
+      </c>
+      <c r="G26">
+        <v>17.8</v>
+      </c>
+      <c r="H26">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I26">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J26">
+        <v>18.5</v>
+      </c>
+      <c r="K26">
+        <v>20.2</v>
+      </c>
+      <c r="L26">
+        <v>20.8</v>
+      </c>
+      <c r="M26">
+        <v>21.8</v>
+      </c>
+      <c r="N26">
+        <v>21.5</v>
+      </c>
+      <c r="O26">
+        <v>21.5</v>
+      </c>
+      <c r="P26">
+        <v>21.8</v>
+      </c>
+      <c r="Q26">
+        <v>22.6</v>
+      </c>
+      <c r="R26">
+        <v>22.8</v>
+      </c>
+      <c r="S26">
+        <v>23.3</v>
+      </c>
+      <c r="T26">
+        <v>23.7</v>
+      </c>
+      <c r="U26">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>9.1</v>
+      </c>
+      <c r="F27">
+        <v>14.2</v>
+      </c>
+      <c r="G27">
+        <v>19.2</v>
+      </c>
+      <c r="H27">
+        <v>18.7</v>
+      </c>
+      <c r="I27">
+        <v>19.2</v>
+      </c>
+      <c r="J27">
+        <v>19.7</v>
+      </c>
+      <c r="K27">
+        <v>21.2</v>
+      </c>
+      <c r="L27">
+        <v>20.7</v>
+      </c>
+      <c r="M27">
+        <v>21.9</v>
+      </c>
+      <c r="N27">
+        <v>23.5</v>
+      </c>
+      <c r="O27">
+        <v>21.8</v>
+      </c>
+      <c r="P27">
+        <v>23.1</v>
+      </c>
+      <c r="Q27">
+        <v>22.6</v>
+      </c>
+      <c r="R27">
+        <v>24</v>
+      </c>
+      <c r="S27">
+        <v>24.3</v>
+      </c>
+      <c r="T27">
+        <v>24.3</v>
+      </c>
+      <c r="U27">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>15.4</v>
+      </c>
+      <c r="G28">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>18.7</v>
+      </c>
+      <c r="J28">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K28">
+        <v>19.5</v>
+      </c>
+      <c r="L28">
+        <v>20.3</v>
+      </c>
+      <c r="M28">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N28">
+        <v>21.1</v>
+      </c>
+      <c r="O28">
+        <v>21.6</v>
+      </c>
+      <c r="P28">
+        <v>21.1</v>
+      </c>
+      <c r="Q28">
+        <v>21.9</v>
+      </c>
+      <c r="R28">
+        <v>22.6</v>
+      </c>
+      <c r="S28">
+        <v>22.7</v>
+      </c>
+      <c r="T28">
+        <v>22.7</v>
+      </c>
+      <c r="U28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>9.5</v>
+      </c>
+      <c r="F29">
+        <v>14.4</v>
+      </c>
+      <c r="G29">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H29">
+        <v>18.7</v>
+      </c>
+      <c r="I29">
+        <v>19</v>
+      </c>
+      <c r="J29">
+        <v>20.2</v>
+      </c>
+      <c r="K29">
+        <v>21.1</v>
+      </c>
+      <c r="L29">
+        <v>21.7</v>
+      </c>
+      <c r="M29">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="N29">
+        <v>20.9</v>
+      </c>
+      <c r="O29">
+        <v>21.8</v>
+      </c>
+      <c r="P29">
+        <v>22.5</v>
+      </c>
+      <c r="Q29">
+        <v>21.8</v>
+      </c>
+      <c r="R29">
+        <v>22</v>
+      </c>
+      <c r="S29">
+        <v>23.4</v>
+      </c>
+      <c r="T29">
+        <v>23.4</v>
+      </c>
+      <c r="U29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>11.4</v>
+      </c>
+      <c r="F30">
+        <v>15.2</v>
+      </c>
+      <c r="G30">
+        <v>17.8</v>
+      </c>
+      <c r="H30">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>7.8</v>
+      </c>
+      <c r="F31">
+        <v>13.1</v>
+      </c>
+      <c r="G31">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H31">
+        <v>19</v>
+      </c>
+      <c r="I31">
+        <v>19.3</v>
+      </c>
+      <c r="J31">
+        <v>20.8</v>
+      </c>
+      <c r="K31">
+        <v>20.3</v>
+      </c>
+      <c r="L31">
+        <v>21.9</v>
+      </c>
+      <c r="M31">
+        <v>22.1</v>
+      </c>
+      <c r="N31">
+        <v>22.1</v>
+      </c>
+      <c r="O31">
+        <v>23</v>
+      </c>
+      <c r="P31">
+        <v>23.2</v>
+      </c>
+      <c r="Q31">
+        <v>23.5</v>
+      </c>
+      <c r="R31">
+        <v>23</v>
+      </c>
+      <c r="S31">
+        <v>23.6</v>
+      </c>
+      <c r="T31">
+        <v>24</v>
+      </c>
+      <c r="U31">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F32">
+        <v>13.5</v>
+      </c>
+      <c r="G32">
+        <v>17.3</v>
+      </c>
+      <c r="H32">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I32">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J32">
+        <v>19.8</v>
+      </c>
+      <c r="K32">
+        <v>20.7</v>
+      </c>
+      <c r="L32">
+        <v>22.1</v>
+      </c>
+      <c r="M32">
+        <v>21</v>
+      </c>
+      <c r="N32">
+        <v>22.8</v>
+      </c>
+      <c r="O32">
+        <v>23.1</v>
+      </c>
+      <c r="P32">
+        <v>22.5</v>
+      </c>
+      <c r="Q32">
+        <v>22.7</v>
+      </c>
+      <c r="R32">
+        <v>22.3</v>
+      </c>
+      <c r="S32">
+        <v>22.5</v>
+      </c>
+      <c r="T32">
+        <v>23</v>
+      </c>
+      <c r="U32">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F33">
+        <v>14.4</v>
+      </c>
+      <c r="G33">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H33">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I33">
+        <v>18.7</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>20.5</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>21.8</v>
+      </c>
+      <c r="O33">
+        <v>22</v>
+      </c>
+      <c r="P33">
+        <v>21.6</v>
+      </c>
+      <c r="Q33">
+        <v>21.3</v>
+      </c>
+      <c r="R33">
+        <v>22.4</v>
+      </c>
+      <c r="S33">
+        <v>21.8</v>
+      </c>
+      <c r="T33">
+        <v>21.7</v>
+      </c>
+      <c r="U33">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34">
+        <v>9.4</v>
+      </c>
+      <c r="F34">
+        <v>14.3</v>
+      </c>
+      <c r="G34">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H34">
+        <v>19.2</v>
+      </c>
+      <c r="I34">
+        <v>19.5</v>
+      </c>
+      <c r="J34">
+        <v>20.2</v>
+      </c>
+      <c r="K34">
+        <v>21.3</v>
+      </c>
+      <c r="L34">
+        <v>21.6</v>
+      </c>
+      <c r="M34">
+        <v>21.8</v>
+      </c>
+      <c r="N34">
+        <v>22.5</v>
+      </c>
+      <c r="O34">
+        <v>23.1</v>
+      </c>
+      <c r="P34">
+        <v>23.2</v>
+      </c>
+      <c r="Q34">
+        <v>23.5</v>
+      </c>
+      <c r="R34">
+        <v>23.7</v>
+      </c>
+      <c r="S34">
+        <v>23.8</v>
+      </c>
+      <c r="T34">
+        <v>24.4</v>
+      </c>
+      <c r="U34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <v>8.6</v>
+      </c>
+      <c r="F35">
+        <v>13.7</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I35">
+        <v>18.5</v>
+      </c>
+      <c r="J35">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="K35">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="L35">
+        <v>21.3</v>
+      </c>
+      <c r="M35">
+        <v>20.9</v>
+      </c>
+      <c r="N35">
+        <v>22.7</v>
+      </c>
+      <c r="O35">
+        <v>22.3</v>
+      </c>
+      <c r="P35">
+        <v>21.7</v>
+      </c>
+      <c r="Q35">
+        <v>22.8</v>
+      </c>
+      <c r="R35">
+        <v>21.7</v>
+      </c>
+      <c r="S35">
+        <v>22.7</v>
+      </c>
+      <c r="T35">
+        <v>23.7</v>
+      </c>
+      <c r="U35">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>10.6</v>
+      </c>
+      <c r="F36">
+        <v>15.4</v>
+      </c>
+      <c r="G36">
+        <v>18.5</v>
+      </c>
+      <c r="H36">
+        <v>19.7</v>
+      </c>
+      <c r="I36">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J36">
+        <v>21.1</v>
+      </c>
+      <c r="K36">
+        <v>21.4</v>
+      </c>
+      <c r="L36">
+        <v>21.9</v>
+      </c>
+      <c r="M36">
+        <v>21.1</v>
+      </c>
+      <c r="N36">
+        <v>23.2</v>
+      </c>
+      <c r="O36">
+        <v>23.5</v>
+      </c>
+      <c r="P36">
+        <v>24.5</v>
+      </c>
+      <c r="Q36">
+        <v>24.3</v>
+      </c>
+      <c r="R36">
+        <v>24.4</v>
+      </c>
+      <c r="S36">
+        <v>24.5</v>
+      </c>
+      <c r="T36">
+        <v>25.2</v>
+      </c>
+      <c r="U36">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>18</v>
       </c>
       <c r="B37" s="2">
         <v>42073</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F37">
+        <v>14.1</v>
+      </c>
+      <c r="G37">
+        <v>16.7</v>
+      </c>
+      <c r="H37">
+        <v>16.7</v>
+      </c>
+      <c r="I37">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J37">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K37">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L37">
+        <v>19.8</v>
+      </c>
+      <c r="M37">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="N37">
+        <v>20</v>
+      </c>
+      <c r="O37">
+        <v>21.2</v>
+      </c>
+      <c r="P37">
+        <v>21.8</v>
+      </c>
+      <c r="Q37">
+        <v>21.9</v>
+      </c>
+      <c r="R37">
+        <v>22.1</v>
+      </c>
+      <c r="S37">
+        <v>22.2</v>
+      </c>
+      <c r="T37">
+        <v>23.6</v>
+      </c>
+      <c r="U37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>500</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>10.5</v>
+      </c>
+      <c r="F38">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H38">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>20.3</v>
+      </c>
+      <c r="K38">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L38">
+        <v>20.6</v>
+      </c>
+      <c r="M38">
+        <v>21.2</v>
+      </c>
+      <c r="N38">
+        <v>21.3</v>
+      </c>
+      <c r="O38">
+        <v>21.6</v>
+      </c>
+      <c r="P38">
+        <v>21.7</v>
+      </c>
+      <c r="Q38">
+        <v>21.8</v>
+      </c>
+      <c r="R38">
+        <v>21.7</v>
+      </c>
+      <c r="S38">
+        <v>22.1</v>
+      </c>
+      <c r="T38">
+        <v>23.4</v>
+      </c>
+      <c r="U38">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>19</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>500</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>9.1</v>
+      </c>
+      <c r="F39">
+        <v>15.1</v>
+      </c>
+      <c r="G39">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="H39">
+        <v>19</v>
+      </c>
+      <c r="I39">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J39">
+        <v>20.3</v>
+      </c>
+      <c r="K39">
+        <v>21.3</v>
+      </c>
+      <c r="L39">
+        <v>19.8</v>
+      </c>
+      <c r="M39">
+        <v>22.5</v>
+      </c>
+      <c r="N39">
+        <v>23.9</v>
+      </c>
+      <c r="O39">
+        <v>23</v>
+      </c>
+      <c r="P39">
+        <v>24.2</v>
+      </c>
+      <c r="Q39">
+        <v>24.7</v>
+      </c>
+      <c r="R39">
+        <v>23.7</v>
+      </c>
+      <c r="S39">
+        <v>23.6</v>
+      </c>
+      <c r="T39">
+        <v>24.6</v>
+      </c>
+      <c r="U39">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>500</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>11.3</v>
+      </c>
+      <c r="F40">
+        <v>16.2</v>
+      </c>
+      <c r="G40">
+        <v>19.3</v>
+      </c>
+      <c r="H40">
+        <v>19.3</v>
+      </c>
+      <c r="I40">
+        <v>20.2</v>
+      </c>
+      <c r="J40">
+        <v>20.7</v>
+      </c>
+      <c r="K40">
+        <v>20.6</v>
+      </c>
+      <c r="L40">
+        <v>20.6</v>
+      </c>
+      <c r="M40">
+        <v>21.5</v>
+      </c>
+      <c r="N40">
+        <v>21.6</v>
+      </c>
+      <c r="O40">
+        <v>22</v>
+      </c>
+      <c r="P40">
+        <v>23.2</v>
+      </c>
+      <c r="Q40">
+        <v>23.1</v>
+      </c>
+      <c r="R40">
+        <v>24</v>
+      </c>
+      <c r="S40">
+        <v>24.1</v>
+      </c>
+      <c r="T40">
+        <v>24.8</v>
+      </c>
+      <c r="U40">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>500</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>9.1</v>
+      </c>
+      <c r="F41">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H41">
+        <v>19.2</v>
+      </c>
+      <c r="I41">
+        <v>19.3</v>
+      </c>
+      <c r="J41">
+        <v>20.3</v>
+      </c>
+      <c r="K41">
+        <v>20.7</v>
+      </c>
+      <c r="L41">
+        <v>21.6</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>21.7</v>
+      </c>
+      <c r="O41">
+        <v>22.7</v>
+      </c>
+      <c r="P41">
+        <v>24.1</v>
+      </c>
+      <c r="Q41">
+        <v>24.4</v>
+      </c>
+      <c r="R41">
+        <v>25</v>
+      </c>
+      <c r="S41">
+        <v>25.5</v>
+      </c>
+      <c r="T41">
+        <v>25.5</v>
+      </c>
+      <c r="U41">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>21</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>500</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42">
+        <v>10.3</v>
+      </c>
+      <c r="F42">
+        <v>14.8</v>
+      </c>
+      <c r="G42">
+        <v>18.2</v>
+      </c>
+      <c r="H42">
+        <v>18.3</v>
+      </c>
+      <c r="I42">
+        <v>18.7</v>
+      </c>
+      <c r="J42">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="K42">
+        <v>19</v>
+      </c>
+      <c r="L42">
+        <v>21.4</v>
+      </c>
+      <c r="M42">
+        <v>20.9</v>
+      </c>
+      <c r="N42">
+        <v>21.4</v>
+      </c>
+      <c r="O42">
+        <v>21.4</v>
+      </c>
+      <c r="P42">
+        <v>23</v>
+      </c>
+      <c r="Q42">
+        <v>23.3</v>
+      </c>
+      <c r="R42">
+        <v>24</v>
+      </c>
+      <c r="S42">
+        <v>23.1</v>
+      </c>
+      <c r="T42">
+        <v>23</v>
+      </c>
+      <c r="U42">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>21</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>500</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43">
+        <v>7.8</v>
+      </c>
+      <c r="F43">
+        <v>12.7</v>
+      </c>
+      <c r="G43">
+        <v>16.5</v>
+      </c>
+      <c r="H43">
+        <v>16.5</v>
+      </c>
+      <c r="I43">
+        <v>16.8</v>
+      </c>
+      <c r="J43">
+        <v>17.5</v>
+      </c>
+      <c r="K43">
+        <v>18</v>
+      </c>
+      <c r="L43">
+        <v>22.3</v>
+      </c>
+      <c r="M43">
+        <v>19.2</v>
+      </c>
+      <c r="N43">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="O43">
+        <v>20.3</v>
+      </c>
+      <c r="P43">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>20.6</v>
+      </c>
+      <c r="R43">
+        <v>21</v>
+      </c>
+      <c r="S43">
+        <v>21.2</v>
+      </c>
+      <c r="T43">
+        <v>21.2</v>
+      </c>
+      <c r="U43">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>500</v>
+      </c>
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>7.2</v>
+      </c>
+      <c r="F44">
+        <v>12.2</v>
+      </c>
+      <c r="G44">
+        <v>16.2</v>
+      </c>
+      <c r="H44">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I44">
+        <v>17.7</v>
+      </c>
+      <c r="J44">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K44">
+        <v>20.5</v>
+      </c>
+      <c r="L44">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M44">
+        <v>21.2</v>
+      </c>
+      <c r="N44">
+        <v>21.9</v>
+      </c>
+      <c r="O44">
+        <v>21.4</v>
+      </c>
+      <c r="P44">
+        <v>21.9</v>
+      </c>
+      <c r="Q44">
+        <v>21.4</v>
+      </c>
+      <c r="R44">
+        <v>21.7</v>
+      </c>
+      <c r="S44">
+        <v>21</v>
+      </c>
+      <c r="T44">
+        <v>22.2</v>
+      </c>
+      <c r="U44">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>500</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F45">
+        <v>15.4</v>
+      </c>
+      <c r="G45">
+        <v>17.8</v>
+      </c>
+      <c r="H45">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I45">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J45">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K45">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>22.2</v>
+      </c>
+      <c r="N45">
+        <v>22.3</v>
+      </c>
+      <c r="O45">
+        <v>22.6</v>
+      </c>
+      <c r="P45">
+        <v>21.3</v>
+      </c>
+      <c r="Q45">
+        <v>22.5</v>
+      </c>
+      <c r="R45">
+        <v>22.5</v>
+      </c>
+      <c r="S45">
+        <v>22</v>
+      </c>
+      <c r="T45">
+        <v>23.3</v>
+      </c>
+      <c r="U45">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>23</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>500</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F46">
+        <v>14.3</v>
+      </c>
+      <c r="G46">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H46">
+        <v>18.3</v>
+      </c>
+      <c r="I46">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J46">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K46">
+        <v>20.3</v>
+      </c>
+      <c r="L46">
+        <v>20.5</v>
+      </c>
+      <c r="M46">
+        <v>21.3</v>
+      </c>
+      <c r="N46">
+        <v>21.3</v>
+      </c>
+      <c r="O46">
+        <v>21.8</v>
+      </c>
+      <c r="P46">
+        <v>21.6</v>
+      </c>
+      <c r="Q46">
+        <v>21.2</v>
+      </c>
+      <c r="R46">
+        <v>21.7</v>
+      </c>
+      <c r="S46">
+        <v>22</v>
+      </c>
+      <c r="T46">
+        <v>21.8</v>
+      </c>
+      <c r="U46">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>500</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47">
+        <v>8.9</v>
+      </c>
+      <c r="F47">
+        <v>14.2</v>
+      </c>
+      <c r="G47">
+        <v>18.8</v>
+      </c>
+      <c r="H47">
+        <v>18.5</v>
+      </c>
+      <c r="I47">
+        <v>18.7</v>
+      </c>
+      <c r="J47">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="K47">
+        <v>20</v>
+      </c>
+      <c r="L47">
+        <v>20.9</v>
+      </c>
+      <c r="M47">
+        <v>21.5</v>
+      </c>
+      <c r="N47">
+        <v>21.8</v>
+      </c>
+      <c r="O47">
+        <v>22.2</v>
+      </c>
+      <c r="P47">
+        <v>21.8</v>
+      </c>
+      <c r="Q47">
+        <v>21.7</v>
+      </c>
+      <c r="R47">
+        <v>22.3</v>
+      </c>
+      <c r="S47">
+        <v>22.6</v>
+      </c>
+      <c r="T47">
+        <v>22.9</v>
+      </c>
+      <c r="U47">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>24</v>
       </c>
       <c r="B48" s="2">
         <v>42067</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>500</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F48">
+        <v>14.8</v>
+      </c>
+      <c r="G48">
+        <v>18.2</v>
+      </c>
+      <c r="H48">
+        <v>18.3</v>
+      </c>
+      <c r="I48">
+        <v>18.8</v>
+      </c>
+      <c r="J48">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K48">
+        <v>20.6</v>
+      </c>
+      <c r="L48">
+        <v>21.2</v>
+      </c>
+      <c r="M48">
+        <v>21</v>
+      </c>
+      <c r="N48">
+        <v>21.8</v>
+      </c>
+      <c r="O48">
+        <v>23</v>
+      </c>
+      <c r="P48">
+        <v>22.3</v>
+      </c>
+      <c r="Q48">
+        <v>23.3</v>
+      </c>
+      <c r="R48">
+        <v>23.6</v>
+      </c>
+      <c r="S48">
+        <v>24.5</v>
+      </c>
+      <c r="T48">
+        <v>24.3</v>
+      </c>
+      <c r="U48">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="C49">
+        <v>500</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49">
+        <v>10.3</v>
+      </c>
+      <c r="F49">
+        <v>15.4</v>
+      </c>
+      <c r="G49">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H49">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I49">
+        <v>18.2</v>
+      </c>
+      <c r="J49">
+        <v>18.7</v>
+      </c>
+      <c r="K49">
+        <v>19.3</v>
+      </c>
+      <c r="L49">
+        <v>20.2</v>
+      </c>
+      <c r="M49">
+        <v>18.3</v>
+      </c>
+      <c r="N49">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="O49">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="P49">
+        <v>20.5</v>
+      </c>
+      <c r="Q49">
+        <v>20.9</v>
+      </c>
+      <c r="R49">
+        <v>22.2</v>
+      </c>
+      <c r="S49">
+        <v>22.4</v>
+      </c>
+      <c r="T49">
+        <v>22.8</v>
+      </c>
+      <c r="U49">
+        <v>22.8</v>
       </c>
     </row>
   </sheetData>
